--- a/data/raw/roi_mev.xlsx
+++ b/data/raw/roi_mev.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasob\Downloads\EV_Diesel_Project\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FE35A6-B763-43E6-B8DA-993AE58757D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payback 8x4 " sheetId="1" r:id="rId1"/>
@@ -30,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nithin</author>
   </authors>
   <commentList>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0">
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,21 +402,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="186" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="9">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,150 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -689,8 +549,15 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,7 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,204 +620,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1435,249 +1116,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1707,24 +1155,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,55 +1164,40 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,46 +1212,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,10 +1233,10 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,10 +1245,10 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,34 +1257,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1905,19 +1278,10 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,196 +1293,367 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,220 +1664,168 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2353,7 +1836,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2381,163 +1864,49 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2580,7 +1949,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2599,8 +1967,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.109641655939875"/>
           <c:y val="0.138261023468149"/>
-          <c:w val="0.864916360160876"/>
-          <c:h val="0.736693509195543"/>
+          <c:w val="0.86491636016087603"/>
+          <c:h val="0.73669350919554299"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2647,6 +2015,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2659,7 +2028,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2686,19 +2054,19 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.8599838623686</c:v>
+                  <c:v>51.859983862368601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.7578820104514</c:v>
+                  <c:v>98.757882010451397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.797187301391</c:v>
+                  <c:v>142.79718730139101</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>185.22219666376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.942930715414</c:v>
+                  <c:v>234.94293071541401</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>277.853599523171</c:v>
@@ -2707,17 +2075,22 @@
                   <c:v>320.764268330927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>363.674937138684</c:v>
+                  <c:v>363.67493713868402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>406.58560594644</c:v>
+                  <c:v>406.58560594644001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>449.496274754196</c:v>
+                  <c:v>449.49627475419601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0E2-47CA-9873-9FABC793307E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2746,54 +2119,47 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
                 <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>{4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564}</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="10"/>
+                    <c:pt idx="0">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E0E2-47CA-9873-9FABC793307E}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -2810,54 +2176,47 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
                 <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>{-147825.637395927,-147825.637395927,-147825.637395927,-147825.637395927,-147825.637395927,0,0,0,0,0}</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>-147825.637395927</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-147825.637395927</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-147825.637395927</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-147825.637395927</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-147825.637395927</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="10"/>
+                    <c:pt idx="0">
+                      <c:v>-147825.63739592701</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>-147825.63739592701</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>-147825.63739592701</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>-147825.63739592701</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>-147825.63739592701</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E0E2-47CA-9873-9FABC793307E}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -2874,54 +2233,47 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
                 <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>{1042757.14285714,546548.571428571,260689.285714286,99259.6928571429,10975.0189285714,0,0,0,0,0}</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>1042757.14285714</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>546548.571428571</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>260689.285714286</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>99259.6928571429</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10975.0189285714</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="10"/>
+                    <c:pt idx="0">
+                      <c:v>1042757.14285714</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>546548.57142857101</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>260689.285714286</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>99259.692857142902</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>10975.0189285714</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E0E2-47CA-9873-9FABC793307E}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -2938,54 +2290,47 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
                 <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>{5185998.38623685,4689789.81480828,4403930.52909399,4242500.93623685,4972073.40516542,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564,4291066.88077564}</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>5185998.38623685</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4689789.81480828</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4403930.52909399</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4242500.93623685</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4972073.40516542</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4291066.88077564</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="10"/>
+                    <c:pt idx="0">
+                      <c:v>5185998.3862368502</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>4689789.8148082802</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>4403930.5290939901</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>4242500.93623685</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>4972073.4051654199</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>4291066.8807756398</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-E0E2-47CA-9873-9FABC793307E}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -3012,9 +2357,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Payback 8x4 '!$X$9:$X$18</c:f>
@@ -3022,39 +2364,44 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.5238095238095</c:v>
+                  <c:v>54.523809523809497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0E2-47CA-9873-9FABC793307E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3064,7 +2411,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="156007040"/>
         <c:axId val="156705536"/>
@@ -3099,11 +2446,9 @@
                   <a:rPr lang="en-IN"/>
                   <a:t>Years</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3147,6 +2492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156705536"/>
@@ -3186,7 +2532,6 @@
                   <a:rPr lang="en-IN"/>
                   <a:t>Lakhs</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3195,7 +2540,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.418462900563519"/>
+              <c:y val="0.41846290056351898"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3237,6 +2582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156007040"/>
@@ -3280,18 +2626,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3333,7 +2682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3351,9 +2699,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.100966517621532"/>
-          <c:y val="0.17325757776385"/>
-          <c:w val="0.873565705678913"/>
-          <c:h val="0.708076597134559"/>
+          <c:y val="0.17325757776385001"/>
+          <c:w val="0.87356570567891301"/>
+          <c:h val="0.70807659713455895"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3400,6 +2748,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3412,7 +2761,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3439,38 +2787,43 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.5549570184547</c:v>
+                  <c:v>46.554957018454701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.1478283226237</c:v>
+                  <c:v>88.147828322623695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.88210676965</c:v>
+                  <c:v>126.88210676964999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>164.002089288104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.417796495845</c:v>
+                  <c:v>208.41779649584501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>201.023438459687</c:v>
+                  <c:v>201.02343845968699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238.62908042353</c:v>
+                  <c:v>238.62908042353001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>276.234722387372</c:v>
+                  <c:v>276.23472238737202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>313.840364351215</c:v>
+                  <c:v>313.84036435121499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>351.446006315057</c:v>
+                  <c:v>351.44600631505699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB82-46DD-AB41-F1798BEC5793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3514,11 +2867,9 @@
                   <a:rPr lang="en-IN"/>
                   <a:t>Years</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3562,6 +2913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156762112"/>
@@ -3601,11 +2953,9 @@
                   <a:rPr lang="en-IN"/>
                   <a:t>Lakhs</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3645,6 +2995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156747648"/>
@@ -3688,11 +3039,14 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3704,7 +3058,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3718,9 +3072,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 3"/>
+        <xdr:cNvPr id="2" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3877,9 +3237,15 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>139520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 4"/>
+        <xdr:cNvPr id="3" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4036,14 +3402,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6655435" y="1469390"/>
-        <a:ext cx="5703570" cy="2503805"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4066,9 +3438,15 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 6"/>
+        <xdr:cNvPr id="5" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4225,14 +3603,20 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>37501</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6682740" y="13579475"/>
-        <a:ext cx="5699760" cy="2877820"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4255,9 +3639,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>128789</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 9"/>
+        <xdr:cNvPr id="7" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4416,13 +3806,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 9" descr="image001"/>
+        <xdr:cNvPr id="8" name="Picture 9" descr="image001">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4724,6 +4120,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -5009,46 +4406,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AL87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.45454545454545" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="2" style="4" customWidth="1"/>
     <col min="3" max="3" width="3" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.1818181818182" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.1818181818182" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.7272727272727" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.4545454545455" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0.181818181818182" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.72727272727273" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.8181818181818" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.18181818181818" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.4545454545455" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.4545454545455" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.5454545454545" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.5454545454545" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7.81818181818182" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.7272727272727" style="4" customWidth="1"/>
-    <col min="18" max="20" width="13.8181818181818" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.7272727272727" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.2727272727273" style="4" customWidth="1"/>
-    <col min="23" max="23" width="19.7272727272727" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16.4545454545455" style="5" customWidth="1"/>
-    <col min="25" max="26" width="24.4545454545455" style="6" customWidth="1"/>
-    <col min="27" max="27" width="12.5454545454545" style="6" customWidth="1"/>
-    <col min="28" max="33" width="8.81818181818182" style="6"/>
-    <col min="34" max="37" width="8.81818181818182" style="7"/>
-    <col min="38" max="16384" width="8.81818181818182" style="4"/>
+    <col min="4" max="4" width="31.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.21875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="4" customWidth="1"/>
+    <col min="18" max="20" width="13.77734375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="19.77734375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" style="5" customWidth="1"/>
+    <col min="25" max="26" width="24.44140625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" style="6" customWidth="1"/>
+    <col min="28" max="33" width="8.77734375" style="6"/>
+    <col min="34" max="37" width="8.77734375" style="7"/>
+    <col min="38" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.25" spans="2:25">
+    <row r="2" spans="2:37">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5071,133 +4467,56 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="165"/>
-    </row>
-    <row r="3" ht="16.25" spans="2:34">
+      <c r="X2" s="101"/>
+      <c r="Y2" s="118"/>
+    </row>
+    <row r="3" spans="2:37">
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="166"/>
+      <c r="E3" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="159"/>
+      <c r="Y3" s="119"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" ht="16.25" spans="2:37">
+    <row r="4" spans="2:37">
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="166"/>
+      <c r="Y4" s="119"/>
       <c r="AH4" s="6"/>
       <c r="AK4" s="6"/>
     </row>
     <row r="5" spans="2:37">
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="81" t="s">
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="166"/>
+      <c r="Y5" s="119"/>
       <c r="AH5" s="6"/>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" ht="16.25" spans="2:37">
+    <row r="6" spans="2:37">
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="166" t="s">
+      <c r="Y6" s="119" t="s">
         <v>8</v>
       </c>
       <c r="AH6" s="6"/>
@@ -5205,71 +4524,64 @@
     </row>
     <row r="7" spans="2:37">
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="125" t="s">
+      <c r="E7" s="164"/>
+      <c r="F7" s="165"/>
+      <c r="K7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="127" t="str">
+      <c r="O7" s="88" t="str">
         <f>CONCATENATE(ROUND(SUM(AF7:AF16),1)," months")</f>
         <v>12.7 months</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="166" t="s">
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="162"/>
+      <c r="Y7" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="167">
+      <c r="Z7" s="120">
         <f t="shared" ref="Z7:Z16" si="0">IF(($F$13-$E$13)/W9&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="167">
+      <c r="AA7" s="120">
         <f t="shared" ref="AA7:AA16" si="1">V9/12</f>
-        <v>432166.532186405</v>
-      </c>
-      <c r="AB7" s="168">
+        <v>432166.53218640498</v>
+      </c>
+      <c r="AB7" s="121">
         <f t="shared" ref="AB7:AB16" si="2">$X$9-W9</f>
-        <v>2.66382566144096</v>
+        <v>2.6638256614409599</v>
       </c>
       <c r="AC7" s="6">
         <f t="shared" ref="AC7:AC16" si="3">IF(AND(AB7&lt;1,AB8&lt;1),0,1)</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="169">
+      <c r="AD7" s="122">
         <f t="shared" ref="AD7:AD16" si="4">AB7*100000/AA7</f>
-        <v>0.616388698116952</v>
+        <v>0.61638869811695196</v>
       </c>
       <c r="AE7" s="6">
         <f t="shared" ref="AE7:AE16" si="5">IF(AD7&gt;0,12,AD7+12)</f>
         <v>12</v>
       </c>
-      <c r="AF7" s="168">
+      <c r="AF7" s="121">
         <f t="shared" ref="AF7:AF16" si="6">IF(AE7&gt;0,AE7,0)</f>
         <v>12</v>
       </c>
@@ -5280,60 +4592,56 @@
       <c r="AH7" s="6"/>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="43.5" spans="2:37">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+    <row r="8" spans="2:37" s="1" customFormat="1" ht="43.2">
+      <c r="B8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="17" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="146" t="s">
+      <c r="R8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="146" t="s">
+      <c r="S8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="146" t="s">
+      <c r="T8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="146" t="s">
+      <c r="U8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="146" t="s">
+      <c r="V8" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="147" t="s">
+      <c r="W8" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="167">
+      <c r="X8" s="104"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="167">
+      <c r="AA8" s="120">
         <f t="shared" si="1"/>
-        <v>390815.81790069</v>
-      </c>
-      <c r="AB8" s="168">
+        <v>390815.81790069002</v>
+      </c>
+      <c r="AB8" s="121">
         <f t="shared" si="2"/>
         <v>-44.2340724866419</v>
       </c>
@@ -5341,108 +4649,100 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="169">
+      <c r="AD8" s="122">
         <f t="shared" si="4"/>
         <v>-11.3183935911934</v>
       </c>
       <c r="AE8" s="6">
         <f t="shared" si="5"/>
-        <v>0.681606408806582</v>
-      </c>
-      <c r="AF8" s="168">
+        <v>0.68160640880658196</v>
+      </c>
+      <c r="AF8" s="121">
         <f t="shared" si="6"/>
-        <v>0.681606408806582</v>
+        <v>0.68160640880658196</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="180"/>
-      <c r="AI8" s="181"/>
-      <c r="AJ8" s="181"/>
-      <c r="AK8" s="180"/>
+      <c r="AH8" s="131"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="131"/>
     </row>
     <row r="9" spans="2:37">
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="18">
         <v>55</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="19">
         <v>135</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="149">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="Q9" s="105">
         <v>1</v>
       </c>
-      <c r="R9" s="150">
+      <c r="R9" s="106">
         <f t="shared" ref="R9:R18" si="8">($G$53-$G$54)*12</f>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S9" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S9" s="107">
         <f t="shared" ref="S9:S18" si="9">IF(Q9*12&gt;$E$43,0,$G$70*12*-1)</f>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T9" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T9" s="106">
         <f t="shared" ref="T9:T18" si="10">IF($L$7="Inc. Depreciation",G74,0)</f>
         <v>1042757.14285714</v>
       </c>
-      <c r="U9" s="150">
+      <c r="U9" s="106">
         <f t="shared" ref="U9:U18" si="11">IF(Q9=E$14,$F$15-$E$15,0)*100000</f>
         <v>0</v>
       </c>
-      <c r="V9" s="152">
+      <c r="V9" s="108">
         <f t="shared" ref="V9:V18" si="12">SUM(R9:U9)</f>
-        <v>5185998.38623686</v>
-      </c>
-      <c r="W9" s="153">
+        <v>5185998.3862368604</v>
+      </c>
+      <c r="W9" s="109">
         <f>V9/100000</f>
-        <v>51.8599838623686</v>
-      </c>
-      <c r="X9" s="154">
+        <v>51.859983862368601</v>
+      </c>
+      <c r="X9" s="110">
         <f t="shared" ref="X9:X18" si="13">IF($M$7="Basic + Gst",$F$13-$E$13,($F$9*$F$10)+($F$11*$F$12)-($E$9*$E$10))</f>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y9" s="166" t="s">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="167">
+      <c r="Z9" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="167">
+      <c r="AA9" s="120">
         <f t="shared" si="1"/>
-        <v>366994.210757833</v>
-      </c>
-      <c r="AB9" s="168">
+        <v>366994.21075783297</v>
+      </c>
+      <c r="AB9" s="121">
         <f t="shared" si="2"/>
-        <v>-88.2733777775819</v>
+        <v>-88.273377777581899</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="169">
+      <c r="AD9" s="122">
         <f t="shared" si="4"/>
-        <v>-24.05307091774</v>
+        <v>-24.053070917740001</v>
       </c>
       <c r="AE9" s="6">
         <f t="shared" si="5"/>
         <v>-12.05307091774</v>
       </c>
-      <c r="AF9" s="168">
+      <c r="AF9" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5455,70 +4755,69 @@
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="22">
         <f>F23/E23</f>
         <v>1.52380952380952</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="23">
         <v>1</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="149">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="105">
         <v>2</v>
       </c>
-      <c r="R10" s="150">
+      <c r="R10" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S10" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S10" s="107">
         <f t="shared" si="9"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T10" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T10" s="106">
         <f t="shared" si="10"/>
-        <v>546548.571428571</v>
-      </c>
-      <c r="U10" s="150">
+        <v>546548.57142857101</v>
+      </c>
+      <c r="U10" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V10" s="152">
+      <c r="V10" s="108">
         <f t="shared" si="12"/>
-        <v>4689789.81480829</v>
-      </c>
-      <c r="W10" s="153">
+        <v>4689789.8148082905</v>
+      </c>
+      <c r="W10" s="109">
         <f t="shared" ref="W10:W18" si="14">(V10/100000+W9)</f>
-        <v>98.7578820104514</v>
-      </c>
-      <c r="X10" s="154">
+        <v>98.757882010451397</v>
+      </c>
+      <c r="X10" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y10" s="166" t="s">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="167">
+      <c r="Z10" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="167">
+      <c r="AA10" s="120">
         <f t="shared" si="1"/>
         <v>353541.744686405</v>
       </c>
-      <c r="AB10" s="168">
+      <c r="AB10" s="121">
         <f t="shared" si="2"/>
         <v>-130.69838713995</v>
       </c>
@@ -5526,15 +4825,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="169">
+      <c r="AD10" s="122">
         <f t="shared" si="4"/>
-        <v>-36.9683040558283</v>
+        <v>-36.968304055828298</v>
       </c>
       <c r="AE10" s="6">
         <f t="shared" si="5"/>
-        <v>-24.9683040558283</v>
-      </c>
-      <c r="AF10" s="168">
+        <v>-24.968304055828298</v>
+      </c>
+      <c r="AF10" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5547,68 +4846,58 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="25">
         <f>1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="149">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="Q11" s="105">
         <v>3</v>
       </c>
-      <c r="R11" s="150">
+      <c r="R11" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S11" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S11" s="107">
         <f t="shared" si="9"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T11" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T11" s="106">
         <f t="shared" si="10"/>
         <v>260689.285714286</v>
       </c>
-      <c r="U11" s="150">
+      <c r="U11" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V11" s="152">
+      <c r="V11" s="108">
         <f t="shared" si="12"/>
-        <v>4403930.529094</v>
-      </c>
-      <c r="W11" s="153">
+        <v>4403930.5290940003</v>
+      </c>
+      <c r="W11" s="109">
         <f t="shared" si="14"/>
-        <v>142.797187301391</v>
-      </c>
-      <c r="X11" s="154">
+        <v>142.79718730139101</v>
+      </c>
+      <c r="X11" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="169">
+      <c r="AA11" s="122">
         <f t="shared" si="1"/>
-        <v>414339.450430452</v>
-      </c>
-      <c r="AB11" s="168">
+        <v>414339.45043045201</v>
+      </c>
+      <c r="AB11" s="121">
         <f t="shared" si="2"/>
         <v>-180.419121191605</v>
       </c>
@@ -5616,15 +4905,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="169">
+      <c r="AD11" s="122">
         <f t="shared" si="4"/>
-        <v>-43.5437950704837</v>
+        <v>-43.543795070483696</v>
       </c>
       <c r="AE11" s="6">
         <f t="shared" si="5"/>
         <v>-31.5437950704837</v>
       </c>
-      <c r="AF11" s="168">
+      <c r="AF11" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5637,67 +4926,57 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="26">
         <v>10</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="149">
+      <c r="G12" s="20"/>
+      <c r="Q12" s="105">
         <v>4</v>
       </c>
-      <c r="R12" s="150">
+      <c r="R12" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S12" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S12" s="107">
         <f t="shared" si="9"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T12" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T12" s="106">
         <f t="shared" si="10"/>
-        <v>99259.6928571429</v>
-      </c>
-      <c r="U12" s="150">
+        <v>99259.692857142902</v>
+      </c>
+      <c r="U12" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V12" s="152">
+      <c r="V12" s="108">
         <f t="shared" si="12"/>
-        <v>4242500.93623686</v>
-      </c>
-      <c r="W12" s="153">
+        <v>4242500.9362368602</v>
+      </c>
+      <c r="W12" s="109">
         <f t="shared" si="14"/>
         <v>185.22219666376</v>
       </c>
-      <c r="X12" s="154">
+      <c r="X12" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="167">
+      <c r="AA12" s="120">
         <f t="shared" si="1"/>
-        <v>357588.906731303</v>
-      </c>
-      <c r="AB12" s="168">
+        <v>357588.90673130302</v>
+      </c>
+      <c r="AB12" s="121">
         <f t="shared" si="2"/>
         <v>-223.329789999361</v>
       </c>
@@ -5705,15 +4984,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="169">
+      <c r="AD12" s="122">
         <f t="shared" si="4"/>
-        <v>-62.4543395489542</v>
+        <v>-62.454339548954202</v>
       </c>
       <c r="AE12" s="6">
         <f t="shared" si="5"/>
-        <v>-50.4543395489542</v>
-      </c>
-      <c r="AF12" s="168">
+        <v>-50.454339548954202</v>
+      </c>
+      <c r="AF12" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5726,85 +5005,74 @@
     </row>
     <row r="13" spans="2:37">
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="27">
         <f>E9*1.28*E10</f>
         <v>107.27619047619</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="28">
         <f>((F9*F10)+(F11*F12))*1.05</f>
         <v>145.25</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="149">
+      <c r="Q13" s="105">
         <v>5</v>
       </c>
-      <c r="R13" s="150">
+      <c r="R13" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S13" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S13" s="107">
         <f t="shared" si="9"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T13" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T13" s="106">
         <f t="shared" si="10"/>
         <v>10975.0189285714</v>
       </c>
-      <c r="U13" s="150">
+      <c r="U13" s="106">
         <f t="shared" si="11"/>
-        <v>817857.142857143</v>
-      </c>
-      <c r="V13" s="152">
+        <v>817857.14285714296</v>
+      </c>
+      <c r="V13" s="108">
         <f t="shared" si="12"/>
-        <v>4972073.40516543</v>
-      </c>
-      <c r="W13" s="153">
+        <v>4972073.4051654302</v>
+      </c>
+      <c r="W13" s="109">
         <f t="shared" si="14"/>
-        <v>234.942930715414</v>
-      </c>
-      <c r="X13" s="154">
+        <v>234.94293071541401</v>
+      </c>
+      <c r="X13" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="167">
+      <c r="AA13" s="120">
         <f t="shared" si="1"/>
-        <v>357588.906731303</v>
-      </c>
-      <c r="AB13" s="168">
+        <v>357588.90673130302</v>
+      </c>
+      <c r="AB13" s="121">
         <f t="shared" si="2"/>
-        <v>-266.240458807118</v>
+        <v>-266.24045880711799</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="169">
+      <c r="AD13" s="122">
         <f t="shared" si="4"/>
-        <v>-74.4543395489542</v>
+        <v>-74.454339548954195</v>
       </c>
       <c r="AE13" s="6">
         <f t="shared" si="5"/>
-        <v>-62.4543395489542</v>
-      </c>
-      <c r="AF13" s="168">
+        <v>-62.454339548954202</v>
+      </c>
+      <c r="AF13" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5817,83 +5085,72 @@
     </row>
     <row r="14" spans="2:37">
       <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="18">
         <v>5</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="29">
         <v>5</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="149">
+      <c r="Q14" s="105">
         <v>6</v>
       </c>
-      <c r="R14" s="150">
+      <c r="R14" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S14" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S14" s="107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="150">
+      <c r="T14" s="106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U14" s="150">
+      <c r="U14" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V14" s="152">
+      <c r="V14" s="108">
         <f t="shared" si="12"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="W14" s="153">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="W14" s="109">
         <f t="shared" si="14"/>
         <v>277.853599523171</v>
       </c>
-      <c r="X14" s="154">
+      <c r="X14" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="167">
+      <c r="AA14" s="120">
         <f t="shared" si="1"/>
-        <v>357588.906731303</v>
-      </c>
-      <c r="AB14" s="168">
+        <v>357588.90673130302</v>
+      </c>
+      <c r="AB14" s="121">
         <f t="shared" si="2"/>
-        <v>-309.151127614874</v>
+        <v>-309.15112761487399</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="169">
+      <c r="AD14" s="122">
         <f t="shared" si="4"/>
-        <v>-86.4543395489542</v>
+        <v>-86.454339548954195</v>
       </c>
       <c r="AE14" s="6">
         <f t="shared" si="5"/>
-        <v>-74.4543395489542</v>
-      </c>
-      <c r="AF14" s="168">
+        <v>-74.454339548954195</v>
+      </c>
+      <c r="AF14" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5906,85 +5163,74 @@
     </row>
     <row r="15" spans="2:37">
       <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
       <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="30">
         <f>(E9*E10)*15%</f>
         <v>12.5714285714286</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="31">
         <f>((F9*F10)+(F12*F11))*15%</f>
         <v>20.75</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="149">
+      <c r="Q15" s="105">
         <v>7</v>
       </c>
-      <c r="R15" s="150">
+      <c r="R15" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S15" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S15" s="107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T15" s="150">
+      <c r="T15" s="106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U15" s="150">
+      <c r="U15" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V15" s="152">
+      <c r="V15" s="108">
         <f t="shared" si="12"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="W15" s="153">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="W15" s="109">
         <f t="shared" si="14"/>
         <v>320.764268330927</v>
       </c>
-      <c r="X15" s="154">
+      <c r="X15" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="167">
+      <c r="AA15" s="120">
         <f t="shared" si="1"/>
-        <v>357588.906731303</v>
-      </c>
-      <c r="AB15" s="168">
+        <v>357588.90673130302</v>
+      </c>
+      <c r="AB15" s="121">
         <f t="shared" si="2"/>
-        <v>-352.06179642263</v>
+        <v>-352.06179642262998</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="169">
+      <c r="AD15" s="122">
         <f t="shared" si="4"/>
-        <v>-98.4543395489542</v>
+        <v>-98.454339548954195</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="5"/>
-        <v>-86.4543395489542</v>
-      </c>
-      <c r="AF15" s="168">
+        <v>-86.454339548954195</v>
+      </c>
+      <c r="AF15" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5997,69 +5243,58 @@
     </row>
     <row r="16" spans="2:37">
       <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="30">
         <f>(E9*E10)-E15</f>
-        <v>71.2380952380952</v>
-      </c>
-      <c r="F16" s="42">
+        <v>71.238095238095198</v>
+      </c>
+      <c r="F16" s="31">
         <f>(F9*F10)+(F12*F11)-F15</f>
         <v>117.583333333333</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="149">
+      <c r="Q16" s="105">
         <v>8</v>
       </c>
-      <c r="R16" s="150">
+      <c r="R16" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S16" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S16" s="107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T16" s="150">
+      <c r="T16" s="106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U16" s="150">
+      <c r="U16" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V16" s="152">
+      <c r="V16" s="108">
         <f t="shared" si="12"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="W16" s="153">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="W16" s="109">
         <f t="shared" si="14"/>
-        <v>363.674937138684</v>
-      </c>
-      <c r="X16" s="154">
+        <v>363.67493713868402</v>
+      </c>
+      <c r="X16" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="167">
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="167">
+      <c r="AA16" s="120">
         <f t="shared" si="1"/>
-        <v>357588.906731303</v>
-      </c>
-      <c r="AB16" s="168">
+        <v>357588.90673130302</v>
+      </c>
+      <c r="AB16" s="121">
         <f t="shared" si="2"/>
         <v>-394.972465230387</v>
       </c>
@@ -6067,15 +5302,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="169">
+      <c r="AD16" s="122">
         <f t="shared" si="4"/>
         <v>-110.454339548954</v>
       </c>
       <c r="AE16" s="6">
         <f t="shared" si="5"/>
-        <v>-98.4543395489542</v>
-      </c>
-      <c r="AF16" s="168">
+        <v>-98.454339548954195</v>
+      </c>
+      <c r="AF16" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6088,424 +5323,268 @@
     </row>
     <row r="17" spans="2:37">
       <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="30">
         <f>E16/E14</f>
-        <v>14.247619047619</v>
-      </c>
-      <c r="F17" s="42">
+        <v>14.247619047619001</v>
+      </c>
+      <c r="F17" s="31">
         <f>F16/F14</f>
-        <v>23.5166666666667</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="149">
+        <v>23.516666666666701</v>
+      </c>
+      <c r="Q17" s="105">
         <v>9</v>
       </c>
-      <c r="R17" s="150">
+      <c r="R17" s="106">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S17" s="151">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S17" s="107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T17" s="150">
+      <c r="T17" s="106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U17" s="150">
+      <c r="U17" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V17" s="152">
+      <c r="V17" s="108">
         <f t="shared" si="12"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="W17" s="153">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="W17" s="109">
         <f t="shared" si="14"/>
-        <v>406.58560594644</v>
-      </c>
-      <c r="X17" s="154">
+        <v>406.58560594644001</v>
+      </c>
+      <c r="X17" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y17" s="166"/>
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y17" s="119"/>
       <c r="AH17" s="6"/>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" ht="16.25" spans="2:37">
+    <row r="18" spans="2:37">
       <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="27">
         <f>(F66/(E43/12))/100000</f>
-        <v>5.58075799534882</v>
-      </c>
-      <c r="F18" s="45">
+        <v>5.5807579953488204</v>
+      </c>
+      <c r="F18" s="28">
         <f>(F67/(E43/12))/100000</f>
         <v>7.55624426283413</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="155">
+      <c r="Q18" s="111">
         <v>10</v>
       </c>
-      <c r="R18" s="156">
+      <c r="R18" s="112">
         <f t="shared" si="8"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="S18" s="157">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="S18" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T18" s="156">
+      <c r="T18" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U18" s="156">
+      <c r="U18" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V18" s="158">
+      <c r="V18" s="114">
         <f t="shared" si="12"/>
-        <v>4291066.88077564</v>
-      </c>
-      <c r="W18" s="159">
+        <v>4291066.8807756398</v>
+      </c>
+      <c r="W18" s="115">
         <f t="shared" si="14"/>
-        <v>449.496274754196</v>
-      </c>
-      <c r="X18" s="154">
+        <v>449.49627475419601</v>
+      </c>
+      <c r="X18" s="110">
         <f t="shared" si="13"/>
-        <v>54.5238095238095</v>
-      </c>
-      <c r="Y18" s="166"/>
+        <v>54.523809523809497</v>
+      </c>
+      <c r="Y18" s="119"/>
       <c r="AH18" s="6"/>
       <c r="AK18" s="6"/>
     </row>
     <row r="19" spans="2:37">
       <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="27">
         <f>0.8*E10</f>
         <v>1.21904761904762</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="28">
         <f>1.2*F10</f>
         <v>1.2</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="171"/>
-      <c r="Z19" s="172"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="125"/>
       <c r="AH19" s="6"/>
       <c r="AK19" s="6"/>
     </row>
     <row r="20" spans="2:37">
       <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="27">
         <v>2</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="166"/>
+      <c r="F20" s="28"/>
+      <c r="Y20" s="119"/>
       <c r="AH20" s="6"/>
       <c r="AK20" s="6"/>
     </row>
     <row r="21" spans="2:37">
       <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="30">
         <f>E17+E18+E19+E20</f>
-        <v>23.0474246620155</v>
-      </c>
-      <c r="F21" s="47">
+        <v>23.047424662015501</v>
+      </c>
+      <c r="F21" s="31">
         <f>F17+F18+F19+F20</f>
-        <v>32.2729109295008</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="166"/>
+        <v>32.272910929500803</v>
+      </c>
+      <c r="Y21" s="119"/>
       <c r="AH21" s="6"/>
       <c r="AK21" s="6"/>
     </row>
     <row r="22" spans="2:37">
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="171"/>
-      <c r="Z22" s="172"/>
-      <c r="AA22" s="172"/>
-      <c r="AB22" s="172"/>
-      <c r="AC22" s="172"/>
-      <c r="AD22" s="172"/>
-      <c r="AE22" s="172"/>
-      <c r="AF22" s="172"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="K22" s="89"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
       <c r="AG22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
     <row r="23" spans="2:37">
       <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="33">
         <v>21</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="34">
         <v>32</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="171"/>
-      <c r="Z23" s="172"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="172"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="172"/>
-      <c r="AE23" s="172"/>
-      <c r="AF23" s="172"/>
+      <c r="K23" s="89"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="125"/>
       <c r="AG23" s="7"/>
       <c r="AK23" s="6"/>
     </row>
     <row r="24" spans="2:37">
       <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="33">
         <f>E32*2.17</f>
         <v>34.72</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="33">
         <f>F32*2.17</f>
         <v>34.72</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="171"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="172"/>
-      <c r="AD24" s="172"/>
-      <c r="AE24" s="172"/>
-      <c r="AF24" s="172"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
       <c r="AG24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="2:37">
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="169">
         <v>1</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="172"/>
+      <c r="F25" s="170"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="125"/>
       <c r="AG25" s="7"/>
       <c r="AK25" s="6"/>
     </row>
     <row r="26" spans="2:37">
       <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="33">
         <f>E24*E25</f>
         <v>34.72</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="34">
         <f>F24*E25</f>
         <v>34.72</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="173"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -6518,37 +5597,21 @@
     </row>
     <row r="27" spans="2:37">
       <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="33">
         <f>E23*E24*E10</f>
         <v>1111.04</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="34">
         <f>F23*F24*F10</f>
         <v>1111.04</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="173"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="91"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="126"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -6561,37 +5624,21 @@
     </row>
     <row r="28" spans="2:37">
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="35">
         <f>E27*E36</f>
-        <v>33331.2</v>
-      </c>
-      <c r="F28" s="56">
+        <v>33331.199999999997</v>
+      </c>
+      <c r="F28" s="36">
         <f>F27*E36</f>
-        <v>33331.2</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="173"/>
+        <v>33331.199999999997</v>
+      </c>
+      <c r="M28" s="90"/>
+      <c r="N28" s="92"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="126"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -6604,29 +5651,14 @@
     </row>
     <row r="29" spans="2:37">
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="173"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="91"/>
+      <c r="P29" s="93"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="126"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -6639,112 +5671,69 @@
     </row>
     <row r="30" spans="2:37">
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="K30" s="94"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="P30" s="91"/>
+      <c r="Y30" s="119"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:37">
       <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="39">
         <f>16.5/4.1</f>
-        <v>4.02439024390244</v>
-      </c>
-      <c r="F31" s="60">
+        <v>4.0243902439024399</v>
+      </c>
+      <c r="F31" s="40">
         <f>18/4.6*1.37</f>
-        <v>5.36086956521739</v>
-      </c>
-      <c r="G31" s="11" t="s">
+        <v>5.3608695652173903</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="175"/>
-      <c r="AA31" s="175"/>
-      <c r="AB31" s="175"/>
-      <c r="AC31" s="175"/>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="175"/>
-      <c r="AG31" s="175"/>
-      <c r="AH31" s="175"/>
-    </row>
-    <row r="32" spans="2:33">
+      <c r="K31" s="94"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="96"/>
+      <c r="P31" s="91"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+    </row>
+    <row r="32" spans="2:37">
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="33">
         <v>16</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="42">
         <v>16</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="166"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="96"/>
+      <c r="Y32" s="119"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -6754,37 +5743,21 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" ht="15.65" customHeight="1" spans="2:33">
+    <row r="33" spans="2:38" ht="15.6" customHeight="1">
       <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="43">
         <v>95</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="44">
         <v>7.5</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="166"/>
+      <c r="K33" s="94"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="Y33" s="119"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -6796,2045 +5769,1334 @@
     </row>
     <row r="34" spans="2:38">
       <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="45">
         <f>50000*E10</f>
-        <v>76190.4761904762</v>
-      </c>
-      <c r="F34" s="66">
+        <v>76190.476190476198</v>
+      </c>
+      <c r="F34" s="46">
         <f>50000*F10</f>
         <v>50000</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="166"/>
+      <c r="K34" s="94"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="Y34" s="119"/>
       <c r="AH34" s="6"/>
       <c r="AL34" s="7"/>
     </row>
     <row r="35" spans="2:38">
       <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="47">
         <f>F35*E10</f>
-        <v>53333.3333333333</v>
-      </c>
-      <c r="F35" s="67">
+        <v>53333.333333333299</v>
+      </c>
+      <c r="F35" s="47">
         <v>35000</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="145"/>
-      <c r="Y35" s="166"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="Y35" s="119"/>
       <c r="AH35" s="6"/>
       <c r="AL35" s="7"/>
     </row>
     <row r="36" spans="2:38">
       <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="171">
         <v>30</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="145"/>
-      <c r="Y36" s="166"/>
+      <c r="F36" s="172"/>
+      <c r="K36" s="94"/>
+      <c r="Y36" s="119"/>
       <c r="AH36" s="6"/>
       <c r="AL36" s="7"/>
     </row>
     <row r="37" spans="2:38">
       <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="145"/>
-      <c r="Y37" s="166"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
+      <c r="Y37" s="119"/>
       <c r="AH37" s="6"/>
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="2:38">
       <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="47">
         <f>40000*E10</f>
-        <v>60952.3809523809</v>
-      </c>
-      <c r="F38" s="71">
+        <v>60952.380952380903</v>
+      </c>
+      <c r="F38" s="49">
         <f>20000*F10</f>
         <v>20000</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="166"/>
+      <c r="Y38" s="119"/>
       <c r="AH38" s="6"/>
       <c r="AL38" s="7"/>
     </row>
     <row r="39" spans="2:38">
       <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="145"/>
-      <c r="Y39" s="166"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="168"/>
+      <c r="Y39" s="119"/>
       <c r="AH39" s="6"/>
       <c r="AL39" s="7"/>
     </row>
     <row r="40" spans="2:38">
       <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="73">
-        <v>0.095</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="E40" s="173">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F40" s="174"/>
+      <c r="I40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="145"/>
-      <c r="Y40" s="166"/>
+      <c r="Y40" s="119"/>
       <c r="AH40" s="6"/>
       <c r="AL40" s="7"/>
     </row>
     <row r="41" spans="2:38">
       <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="173">
         <v>0.15</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="145"/>
-      <c r="Y41" s="166"/>
+      <c r="F41" s="174"/>
+      <c r="Y41" s="119"/>
       <c r="AH41" s="6"/>
       <c r="AL41" s="7"/>
     </row>
     <row r="42" spans="2:38">
       <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="75">
+      <c r="E42" s="50">
         <v>0.15</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="51">
         <v>0.4</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="145"/>
-      <c r="Y42" s="166"/>
+      <c r="Y42" s="119"/>
       <c r="AH42" s="6"/>
       <c r="AL42" s="7"/>
     </row>
     <row r="43" spans="2:38">
       <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="175">
         <v>60</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="145"/>
-      <c r="Y43" s="166"/>
+      <c r="F43" s="176"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="Y43" s="119"/>
       <c r="AH43" s="6"/>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15.25" spans="2:38">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82" t="s">
+    <row r="44" spans="2:38" s="2" customFormat="1" ht="14.4">
+      <c r="B44" s="53"/>
+      <c r="D44" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="83">
-        <v>0.2517</v>
-      </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="176"/>
-      <c r="Z44" s="177"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="177"/>
-      <c r="AC44" s="177"/>
-      <c r="AD44" s="177"/>
-      <c r="AE44" s="177"/>
-      <c r="AF44" s="177"/>
-      <c r="AG44" s="177"/>
-      <c r="AH44" s="177"/>
-      <c r="AI44" s="182"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="182"/>
+      <c r="E44" s="55">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="F44" s="56"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="Y44" s="128"/>
+      <c r="Z44" s="129"/>
+      <c r="AA44" s="129"/>
+      <c r="AB44" s="129"/>
+      <c r="AC44" s="129"/>
+      <c r="AD44" s="129"/>
+      <c r="AE44" s="129"/>
+      <c r="AF44" s="129"/>
+      <c r="AG44" s="129"/>
+      <c r="AH44" s="129"/>
+      <c r="AI44" s="133"/>
+      <c r="AJ44" s="133"/>
+      <c r="AK44" s="133"/>
+      <c r="AL44" s="133"/>
     </row>
     <row r="45" spans="2:38">
       <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="145"/>
-      <c r="Y45" s="166"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="Y45" s="119"/>
       <c r="AH45" s="6"/>
       <c r="AL45" s="7"/>
     </row>
-    <row r="46" ht="16.25" spans="2:38">
+    <row r="46" spans="2:38">
       <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="145"/>
-      <c r="Y46" s="166"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="Y46" s="119"/>
       <c r="AH46" s="6"/>
       <c r="AL46" s="7"/>
     </row>
     <row r="47" spans="2:38">
       <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="178"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="98"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="130"/>
       <c r="AH47" s="6"/>
       <c r="AL47" s="7"/>
     </row>
     <row r="48" spans="2:38">
       <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="89"/>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="178"/>
+      <c r="F48" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="178"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="130"/>
       <c r="AH48" s="6"/>
       <c r="AL48" s="7"/>
     </row>
     <row r="49" spans="2:38">
       <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="91"/>
-      <c r="F49" s="92">
+      <c r="E49" s="180"/>
+      <c r="F49" s="62">
         <f>E31*E32*E33*E10</f>
-        <v>9321.2543554007</v>
-      </c>
-      <c r="G49" s="93">
+        <v>9321.2543554007007</v>
+      </c>
+      <c r="G49" s="63">
         <f>F49*E36</f>
-        <v>279637.630662021</v>
-      </c>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="178"/>
+        <v>279637.63066202099</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="130"/>
       <c r="AH49" s="6"/>
       <c r="AL49" s="7"/>
     </row>
     <row r="50" spans="2:38">
       <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="94">
+      <c r="E50" s="61"/>
+      <c r="F50" s="64">
         <f>(E31*E32*E10)*8%*50</f>
         <v>392.473867595819</v>
       </c>
-      <c r="G50" s="93">
+      <c r="G50" s="63">
         <f>F50*E36</f>
         <v>11774.2160278746</v>
       </c>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="178"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="130"/>
       <c r="AH50" s="6"/>
       <c r="AL50" s="7"/>
     </row>
     <row r="51" spans="2:38">
       <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="92">
+      <c r="E51" s="61"/>
+      <c r="F51" s="62">
         <f>F49+F50</f>
-        <v>9713.72822299652</v>
-      </c>
-      <c r="G51" s="93">
+        <v>9713.7282229965203</v>
+      </c>
+      <c r="G51" s="63">
         <f>F51*E36</f>
-        <v>291411.846689895</v>
-      </c>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="178"/>
+        <v>291411.84668989503</v>
+      </c>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="98"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="130"/>
       <c r="AH51" s="6"/>
       <c r="AL51" s="7"/>
     </row>
     <row r="52" spans="2:38">
       <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="91"/>
-      <c r="F52" s="92">
+      <c r="E52" s="61"/>
+      <c r="F52" s="62">
         <f>F31*F32*F33*F10</f>
         <v>643.304347826087</v>
       </c>
-      <c r="G52" s="93">
+      <c r="G52" s="63">
         <f>F52*E36</f>
-        <v>19299.1304347826</v>
-      </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="160"/>
-      <c r="Y52" s="173"/>
+        <v>19299.130434782601</v>
+      </c>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="X52" s="116"/>
+      <c r="Y52" s="126"/>
       <c r="AH52" s="6"/>
       <c r="AL52" s="7"/>
     </row>
     <row r="53" spans="2:38">
       <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="91"/>
-      <c r="F53" s="92" t="s">
+      <c r="E53" s="61"/>
+      <c r="F53" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="93">
+      <c r="G53" s="63">
         <f>G51+E34+E35+E38</f>
-        <v>481888.037166086</v>
-      </c>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="160"/>
-      <c r="Y53" s="173"/>
+        <v>481888.03716608603</v>
+      </c>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="126"/>
       <c r="AH53" s="6"/>
       <c r="AL53" s="7"/>
     </row>
     <row r="54" spans="2:38">
       <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="97"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="93">
+      <c r="E54" s="182"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="63">
         <f>G52+F34+F35+F38</f>
         <v>124299.130434783</v>
       </c>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="160"/>
-      <c r="Y54" s="173"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="126"/>
       <c r="AH54" s="6"/>
       <c r="AL54" s="7"/>
     </row>
     <row r="55" spans="2:38">
       <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102">
+      <c r="E55" s="184"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="67">
         <f>G53/E28</f>
         <v>14.4575663992321</v>
       </c>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="160"/>
-      <c r="Y55" s="173"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="X55" s="116"/>
+      <c r="Y55" s="126"/>
       <c r="AH55" s="6"/>
       <c r="AL55" s="7"/>
     </row>
     <row r="56" spans="2:38">
       <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="103" t="s">
+      <c r="D56" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102">
+      <c r="E56" s="187"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="67">
         <f>G54/F28</f>
-        <v>3.72921258264877</v>
-      </c>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="160"/>
-      <c r="Y56" s="173"/>
+        <v>3.7292125826487701</v>
+      </c>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="X56" s="116"/>
+      <c r="Y56" s="126"/>
       <c r="AH56" s="6"/>
       <c r="AL56" s="7"/>
     </row>
-    <row r="57" ht="29" spans="2:25">
+    <row r="57" spans="2:38" ht="28.8">
       <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="107" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="108">
+      <c r="G57" s="71">
         <f>((E21*100000/12)+G53)/E28</f>
-        <v>20.2197913471327</v>
-      </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="81"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="160"/>
-      <c r="Y57" s="173"/>
-    </row>
-    <row r="58" ht="29" spans="2:25">
+        <v>20.219791347132698</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="X57" s="116"/>
+      <c r="Y57" s="126"/>
+    </row>
+    <row r="58" spans="2:38" ht="28.8">
       <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="107" t="s">
+      <c r="D58" s="72"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="108">
+      <c r="G58" s="71">
         <f>((F21*100000/12)+G54)/F28</f>
         <v>11.7979567146484</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="160"/>
-      <c r="Y58" s="173"/>
-    </row>
-    <row r="59" spans="2:25">
+      <c r="J58" s="2"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="X58" s="116"/>
+      <c r="Y58" s="126"/>
+    </row>
+    <row r="59" spans="2:38">
       <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="107" t="s">
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="113">
+      <c r="G59" s="76">
         <f>G57-G58</f>
-        <v>8.42183463248425</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="131" t="s">
+        <v>8.4218346324842503</v>
+      </c>
+      <c r="J59" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="160"/>
-      <c r="Y59" s="173"/>
-    </row>
-    <row r="60" ht="58" spans="2:25">
+      <c r="K59" s="188"/>
+      <c r="L59" s="91"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="126"/>
+    </row>
+    <row r="60" spans="2:38" ht="43.2">
       <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="107" t="s">
+      <c r="D60" s="77"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="116">
+      <c r="G60" s="79">
         <f>SUM(G74:G78)/5/12/F28</f>
-        <v>0.980177587258442</v>
-      </c>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="140" t="s">
+        <v>0.98017758725844195</v>
+      </c>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="141">
+      <c r="K60" s="189"/>
+      <c r="L60" s="189"/>
+      <c r="M60" s="99">
         <v>4500000</v>
       </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="160"/>
-      <c r="Y60" s="173"/>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="29.75" spans="2:37">
-      <c r="B61" s="117"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="119" t="s">
+      <c r="X60" s="116"/>
+      <c r="Y60" s="126"/>
+    </row>
+    <row r="61" spans="2:38" s="3" customFormat="1" ht="28.8">
+      <c r="B61" s="80"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="116">
+      <c r="G61" s="79">
         <f>G59+G60</f>
-        <v>9.40201221974269</v>
-      </c>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="142"/>
-      <c r="M61" s="141"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="178"/>
-      <c r="Z61" s="179"/>
-      <c r="AA61" s="179"/>
-      <c r="AB61" s="179"/>
-      <c r="AC61" s="179"/>
-      <c r="AD61" s="179"/>
-      <c r="AE61" s="179"/>
-      <c r="AF61" s="179"/>
-      <c r="AG61" s="179"/>
-      <c r="AH61" s="183"/>
-      <c r="AI61" s="183"/>
-      <c r="AJ61" s="183"/>
-      <c r="AK61" s="183"/>
-    </row>
-    <row r="62" ht="16.25" spans="2:25">
+        <v>9.4020122197426907</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="130"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="134"/>
+      <c r="AI61" s="134"/>
+      <c r="AJ61" s="134"/>
+      <c r="AK61" s="134"/>
+    </row>
+    <row r="62" spans="2:38">
       <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="122">
+      <c r="E62" s="191"/>
+      <c r="F62" s="191"/>
+      <c r="G62" s="83">
         <f>G61*F28</f>
-        <v>313380.349698688</v>
-      </c>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="162" t="s">
+        <v>313380.34969868802</v>
+      </c>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="L62" s="192"/>
+      <c r="M62" s="192"/>
+      <c r="N62" s="192"/>
+      <c r="Q62" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="R62" s="163"/>
-      <c r="S62" s="163"/>
-      <c r="T62" s="163"/>
-      <c r="U62" s="163"/>
-      <c r="V62" s="163"/>
-      <c r="W62" s="163"/>
-      <c r="X62" s="164"/>
-      <c r="Y62" s="178"/>
-    </row>
-    <row r="63" ht="44.25" spans="2:25">
+      <c r="R62" s="194"/>
+      <c r="S62" s="194"/>
+      <c r="T62" s="194"/>
+      <c r="U62" s="194"/>
+      <c r="V62" s="194"/>
+      <c r="W62" s="194"/>
+      <c r="X62" s="195"/>
+      <c r="Y62" s="130"/>
+    </row>
+    <row r="63" spans="2:38" ht="43.2">
       <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="123"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="17" t="s">
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="N63" s="3"/>
+      <c r="Q63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R63" s="146" t="s">
+      <c r="R63" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="S63" s="146" t="s">
+      <c r="S63" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="T63" s="146" t="s">
+      <c r="T63" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="U63" s="146" t="s">
+      <c r="U63" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="V63" s="146" t="s">
+      <c r="V63" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="W63" s="146" t="s">
+      <c r="W63" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="X63" s="147" t="s">
+      <c r="X63" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="Y63" s="178"/>
-    </row>
-    <row r="64" spans="2:25">
+      <c r="Y63" s="130"/>
+    </row>
+    <row r="64" spans="2:38">
       <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="149">
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="Q64" s="105">
         <v>1</v>
       </c>
-      <c r="R64" s="150">
+      <c r="R64" s="106">
         <f t="shared" ref="R64:R73" si="15">$G$62*12</f>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S64" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S64" s="107">
         <f t="shared" ref="S64:S73" si="16">IF(Q64*12&gt;$E$43,0,$G$70*12*-1)</f>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T64" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T64" s="106">
         <f t="shared" ref="T64:T73" si="17">T9</f>
         <v>1042757.14285714</v>
       </c>
-      <c r="U64" s="150">
+      <c r="U64" s="106">
         <f t="shared" ref="U64:U73" si="18">IF(Q64=E$14,$F$15-$E$15,0)*100000</f>
         <v>0</v>
       </c>
-      <c r="V64" s="150"/>
-      <c r="W64" s="152">
+      <c r="V64" s="106"/>
+      <c r="W64" s="108">
         <f t="shared" ref="W64:W73" si="19">SUM(R64:V64)</f>
-        <v>4655495.70184547</v>
-      </c>
-      <c r="X64" s="153">
+        <v>4655495.7018454699</v>
+      </c>
+      <c r="X64" s="109">
         <f>W64/100000</f>
-        <v>46.5549570184547</v>
-      </c>
-      <c r="Y64" s="178"/>
-    </row>
-    <row r="65" spans="2:25">
+        <v>46.554957018454701</v>
+      </c>
+      <c r="Y64" s="130"/>
+    </row>
+    <row r="65" spans="2:37">
       <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="184" t="s">
+      <c r="E65" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H65" s="95"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="149">
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
+      <c r="Q65" s="105">
         <v>2</v>
       </c>
-      <c r="R65" s="150">
+      <c r="R65" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S65" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S65" s="107">
         <f t="shared" si="16"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T65" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T65" s="106">
         <f t="shared" si="17"/>
-        <v>546548.571428571</v>
-      </c>
-      <c r="U65" s="150">
+        <v>546548.57142857101</v>
+      </c>
+      <c r="U65" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V65" s="150"/>
-      <c r="W65" s="152">
+      <c r="V65" s="106"/>
+      <c r="W65" s="108">
         <f t="shared" si="19"/>
-        <v>4159287.1304169</v>
-      </c>
-      <c r="X65" s="153">
+        <v>4159287.1304168999</v>
+      </c>
+      <c r="X65" s="109">
         <f t="shared" ref="X65:X73" si="20">(W65/100000+X64)</f>
-        <v>88.1478283226237</v>
-      </c>
-      <c r="Y65" s="178"/>
-    </row>
-    <row r="66" spans="2:25">
+        <v>88.147828322623695</v>
+      </c>
+      <c r="Y65" s="130"/>
+    </row>
+    <row r="66" spans="2:37">
       <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="185" t="s">
+      <c r="D66" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="186">
+      <c r="E66" s="62">
         <f>'Payback 8x4 '!E13*100000</f>
         <v>10727619.047619</v>
       </c>
-      <c r="F66" s="186">
+      <c r="F66" s="62">
         <f>CUMIPMT($E$40/12,$E$43,E66,1,$E$43,0)*-1</f>
-        <v>2790378.99767441</v>
-      </c>
-      <c r="G66" s="187">
+        <v>2790378.9976744102</v>
+      </c>
+      <c r="G66" s="137">
         <f>E66+F66</f>
-        <v>13517998.0452935</v>
-      </c>
-      <c r="H66" s="188"/>
-      <c r="I66" s="188"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="143"/>
-      <c r="N66" s="143"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="149">
+        <v>13517998.045293501</v>
+      </c>
+      <c r="H66" s="138"/>
+      <c r="I66" s="138"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="Q66" s="105">
         <v>3</v>
       </c>
-      <c r="R66" s="150">
+      <c r="R66" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S66" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S66" s="107">
         <f t="shared" si="16"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T66" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T66" s="106">
         <f t="shared" si="17"/>
         <v>260689.285714286</v>
       </c>
-      <c r="U66" s="150">
+      <c r="U66" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V66" s="150"/>
-      <c r="W66" s="152">
+      <c r="V66" s="106"/>
+      <c r="W66" s="108">
         <f t="shared" si="19"/>
-        <v>3873427.84470261</v>
-      </c>
-      <c r="X66" s="153">
+        <v>3873427.8447026098</v>
+      </c>
+      <c r="X66" s="109">
         <f t="shared" si="20"/>
-        <v>126.88210676965</v>
-      </c>
-      <c r="Y66" s="178"/>
-    </row>
-    <row r="67" spans="2:25">
+        <v>126.88210676964999</v>
+      </c>
+      <c r="Y66" s="130"/>
+    </row>
+    <row r="67" spans="2:37">
       <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="190">
+      <c r="E67" s="140">
         <f>'Payback 8x4 '!F13*100000</f>
         <v>14525000</v>
       </c>
-      <c r="F67" s="190">
+      <c r="F67" s="140">
         <f>CUMIPMT($E$40/12,$E$43,E67,1,$E$43,0)*-1</f>
         <v>3778122.13141707</v>
       </c>
-      <c r="G67" s="191">
+      <c r="G67" s="141">
         <f>E67+F67</f>
-        <v>18303122.1314171</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="204"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="205"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="149">
+        <v>18303122.131417099</v>
+      </c>
+      <c r="L67" s="152"/>
+      <c r="M67" s="153"/>
+      <c r="N67" s="153"/>
+      <c r="Q67" s="105">
         <v>4</v>
       </c>
-      <c r="R67" s="150">
+      <c r="R67" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S67" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S67" s="107">
         <f t="shared" si="16"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T67" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T67" s="106">
         <f t="shared" si="17"/>
-        <v>99259.6928571429</v>
-      </c>
-      <c r="U67" s="150">
+        <v>99259.692857142902</v>
+      </c>
+      <c r="U67" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V67" s="150"/>
-      <c r="W67" s="152">
+      <c r="V67" s="106"/>
+      <c r="W67" s="108">
         <f t="shared" si="19"/>
-        <v>3711998.25184547</v>
-      </c>
-      <c r="X67" s="153">
+        <v>3711998.2518454702</v>
+      </c>
+      <c r="X67" s="109">
         <f t="shared" si="20"/>
         <v>164.002089288104</v>
       </c>
-      <c r="Y67" s="178"/>
-    </row>
-    <row r="68" spans="2:25">
+      <c r="Y67" s="130"/>
+    </row>
+    <row r="68" spans="2:37">
       <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="192" t="s">
+      <c r="D68" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="193"/>
-      <c r="F68" s="193"/>
-      <c r="G68" s="194">
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="142">
         <f>(F67-F66)/E43</f>
-        <v>16462.3855623777</v>
-      </c>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="149">
+        <v>16462.385562377702</v>
+      </c>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="Q68" s="105">
         <v>5</v>
       </c>
-      <c r="R68" s="150">
+      <c r="R68" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S68" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S68" s="107">
         <f t="shared" si="16"/>
-        <v>-147825.637395926</v>
-      </c>
-      <c r="T68" s="150">
+        <v>-147825.63739592599</v>
+      </c>
+      <c r="T68" s="106">
         <f t="shared" si="17"/>
         <v>10975.0189285714</v>
       </c>
-      <c r="U68" s="150">
+      <c r="U68" s="106">
         <f t="shared" si="18"/>
-        <v>817857.142857143</v>
-      </c>
-      <c r="V68" s="150"/>
-      <c r="W68" s="152">
+        <v>817857.14285714296</v>
+      </c>
+      <c r="V68" s="106"/>
+      <c r="W68" s="108">
         <f t="shared" si="19"/>
-        <v>4441570.72077404</v>
-      </c>
-      <c r="X68" s="153">
+        <v>4441570.7207740396</v>
+      </c>
+      <c r="X68" s="109">
         <f t="shared" si="20"/>
-        <v>208.417796495845</v>
-      </c>
-      <c r="Y68" s="178"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="2:37">
-      <c r="B69" s="117"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="192" t="s">
+        <v>208.41779649584501</v>
+      </c>
+      <c r="Y68" s="130"/>
+    </row>
+    <row r="69" spans="2:37" s="3" customFormat="1">
+      <c r="B69" s="80"/>
+      <c r="D69" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="193"/>
-      <c r="F69" s="193"/>
-      <c r="G69" s="195">
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="143">
         <f>IF(L7="Inc. Depreciation",G68*E44,0)</f>
         <v>4143.58244605046</v>
       </c>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="149">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="105">
         <v>6</v>
       </c>
-      <c r="R69" s="150">
+      <c r="R69" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S69" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S69" s="107">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T69" s="150">
+      <c r="T69" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U69" s="150">
+      <c r="U69" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V69" s="151">
+      <c r="V69" s="107">
         <f>(M60*F10)*-1</f>
         <v>-4500000</v>
       </c>
-      <c r="W69" s="152">
+      <c r="W69" s="108">
         <f t="shared" si="19"/>
-        <v>-739435.803615748</v>
-      </c>
-      <c r="X69" s="153">
+        <v>-739435.80361574795</v>
+      </c>
+      <c r="X69" s="109">
         <f t="shared" si="20"/>
-        <v>201.023438459687</v>
-      </c>
-      <c r="Y69" s="178"/>
-      <c r="Z69" s="179"/>
-      <c r="AA69" s="179"/>
-      <c r="AB69" s="179"/>
-      <c r="AC69" s="179"/>
-      <c r="AD69" s="179"/>
-      <c r="AE69" s="179"/>
-      <c r="AF69" s="179"/>
-      <c r="AG69" s="179"/>
-      <c r="AH69" s="183"/>
-      <c r="AI69" s="183"/>
-      <c r="AJ69" s="183"/>
-      <c r="AK69" s="183"/>
-    </row>
-    <row r="70" ht="16.25" spans="2:25">
+        <v>201.02343845968699</v>
+      </c>
+      <c r="Y69" s="130"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="52"/>
+      <c r="AD69" s="52"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="134"/>
+      <c r="AI69" s="134"/>
+      <c r="AJ69" s="134"/>
+      <c r="AK69" s="134"/>
+    </row>
+    <row r="70" spans="2:37">
       <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="120" t="s">
+      <c r="D70" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="196">
+      <c r="E70" s="191"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="144">
         <f>G68-G69</f>
-        <v>12318.8031163272</v>
-      </c>
-      <c r="H70" s="139"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="149">
+        <v>12318.803116327201</v>
+      </c>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="Q70" s="105">
         <v>7</v>
       </c>
-      <c r="R70" s="150">
+      <c r="R70" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S70" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S70" s="107">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T70" s="150">
+      <c r="T70" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U70" s="150">
+      <c r="U70" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V70" s="150"/>
-      <c r="W70" s="152">
+      <c r="V70" s="106"/>
+      <c r="W70" s="108">
         <f t="shared" si="19"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="X70" s="153">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="X70" s="109">
         <f t="shared" si="20"/>
-        <v>238.62908042353</v>
-      </c>
-      <c r="Y70" s="178"/>
-    </row>
-    <row r="71" ht="16.25" spans="2:25">
+        <v>238.62908042353001</v>
+      </c>
+      <c r="Y70" s="130"/>
+    </row>
+    <row r="71" spans="2:37">
       <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="139"/>
-      <c r="I71" s="139"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="149">
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
+      <c r="Q71" s="105">
         <v>8</v>
       </c>
-      <c r="R71" s="150">
+      <c r="R71" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S71" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S71" s="107">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T71" s="150">
+      <c r="T71" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U71" s="150">
+      <c r="U71" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V71" s="150"/>
-      <c r="W71" s="152">
+      <c r="V71" s="106"/>
+      <c r="W71" s="108">
         <f t="shared" si="19"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="X71" s="153">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="X71" s="109">
         <f t="shared" si="20"/>
-        <v>276.234722387372</v>
-      </c>
-      <c r="Y71" s="178"/>
-    </row>
-    <row r="72" spans="2:25">
+        <v>276.23472238737202</v>
+      </c>
+      <c r="Y71" s="130"/>
+    </row>
+    <row r="72" spans="2:37">
       <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="149">
+      <c r="E72" s="161"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="162"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="Q72" s="105">
         <v>9</v>
       </c>
-      <c r="R72" s="150">
+      <c r="R72" s="106">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S72" s="151">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S72" s="107">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T72" s="150">
+      <c r="T72" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U72" s="150">
+      <c r="U72" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V72" s="150"/>
-      <c r="W72" s="152">
+      <c r="V72" s="106"/>
+      <c r="W72" s="108">
         <f t="shared" si="19"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="X72" s="153">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="X72" s="109">
         <f t="shared" si="20"/>
-        <v>313.840364351215</v>
-      </c>
-      <c r="Y72" s="178"/>
-    </row>
-    <row r="73" ht="29.75" spans="2:25">
+        <v>313.84036435121499</v>
+      </c>
+      <c r="Y72" s="130"/>
+    </row>
+    <row r="73" spans="2:37" ht="28.8">
       <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="146" t="s">
+      <c r="E73" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G73" s="147" t="s">
+      <c r="G73" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="H73" s="139"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="81"/>
-      <c r="N73" s="81"/>
-      <c r="O73" s="81"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="155">
+      <c r="H73" s="98"/>
+      <c r="I73" s="98"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="111">
         <v>10</v>
       </c>
-      <c r="R73" s="156">
+      <c r="R73" s="112">
         <f t="shared" si="15"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="S73" s="157">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="S73" s="113">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T73" s="156">
+      <c r="T73" s="112">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U73" s="156">
+      <c r="U73" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V73" s="156"/>
-      <c r="W73" s="158">
+      <c r="V73" s="112"/>
+      <c r="W73" s="114">
         <f t="shared" si="19"/>
-        <v>3760564.19638425</v>
-      </c>
-      <c r="X73" s="159">
+        <v>3760564.1963842502</v>
+      </c>
+      <c r="X73" s="115">
         <f t="shared" si="20"/>
-        <v>351.446006315057</v>
-      </c>
-      <c r="Y73" s="208"/>
-    </row>
-    <row r="74" spans="2:25">
+        <v>351.44600631505699</v>
+      </c>
+      <c r="Y73" s="156"/>
+    </row>
+    <row r="74" spans="2:37">
       <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="149">
+      <c r="D74" s="105">
         <v>1</v>
       </c>
-      <c r="E74" s="197">
+      <c r="E74" s="145">
         <f>E9*E42*100000*E10</f>
-        <v>1257142.85714286</v>
-      </c>
-      <c r="F74" s="197">
+        <v>1257142.8571428601</v>
+      </c>
+      <c r="F74" s="145">
         <f>F9*F42*100000*F10</f>
         <v>5400000</v>
       </c>
-      <c r="G74" s="198">
+      <c r="G74" s="146">
         <f t="shared" ref="G74:G83" si="21">(F74-E74)*E$44</f>
         <v>1042757.14285714</v>
       </c>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
-      <c r="J74" s="139">
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98">
         <f>SUM(F74:F78)</f>
         <v>12450240</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="145"/>
-      <c r="Y74" s="166"/>
-    </row>
-    <row r="75" spans="2:25">
+      <c r="Y74" s="119"/>
+    </row>
+    <row r="75" spans="2:37">
       <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="149">
+      <c r="D75" s="105">
         <v>2</v>
       </c>
-      <c r="E75" s="197">
+      <c r="E75" s="145">
         <f>((E$9*E10*100000)-E74)*E$42</f>
         <v>1068571.42857143</v>
       </c>
-      <c r="F75" s="197">
+      <c r="F75" s="145">
         <f>((F$9*F10*100000)-F74)*F$42</f>
         <v>3240000</v>
       </c>
-      <c r="G75" s="198">
+      <c r="G75" s="146">
         <f t="shared" si="21"/>
-        <v>546548.571428571</v>
-      </c>
-      <c r="H75" s="139"/>
-      <c r="I75" s="139"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="145"/>
-      <c r="Y75" s="166"/>
-    </row>
-    <row r="76" spans="2:25">
+        <v>546548.57142857101</v>
+      </c>
+      <c r="H75" s="98"/>
+      <c r="I75" s="98"/>
+      <c r="Y75" s="119"/>
+    </row>
+    <row r="76" spans="2:37">
       <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="149">
+      <c r="D76" s="105">
         <v>3</v>
       </c>
-      <c r="E76" s="197">
+      <c r="E76" s="145">
         <f>IF($D76&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E75))*E$42,0)</f>
-        <v>908285.714285714</v>
-      </c>
-      <c r="F76" s="197">
+        <v>908285.71428571397</v>
+      </c>
+      <c r="F76" s="145">
         <f>IF($D76&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F75))*F$42,0)</f>
         <v>1944000</v>
       </c>
-      <c r="G76" s="198">
+      <c r="G76" s="146">
         <f t="shared" si="21"/>
         <v>260689.285714286</v>
       </c>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="145"/>
-      <c r="Y76" s="166"/>
-    </row>
-    <row r="77" spans="2:25">
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="Y76" s="119"/>
+    </row>
+    <row r="77" spans="2:37">
       <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="149">
+      <c r="D77" s="105">
         <v>4</v>
       </c>
-      <c r="E77" s="197">
+      <c r="E77" s="145">
         <f>IF($D77&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E76))*E$42,0)</f>
-        <v>772042.857142857</v>
-      </c>
-      <c r="F77" s="197">
+        <v>772042.85714285704</v>
+      </c>
+      <c r="F77" s="145">
         <f>IF($D77&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F76))*F$42,0)</f>
         <v>1166400</v>
       </c>
-      <c r="G77" s="198">
+      <c r="G77" s="146">
         <f t="shared" si="21"/>
-        <v>99259.6928571429</v>
-      </c>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="139"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="145"/>
-      <c r="Y77" s="166"/>
-    </row>
-    <row r="78" spans="2:25">
+        <v>99259.692857142902</v>
+      </c>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="Y77" s="119"/>
+    </row>
+    <row r="78" spans="2:37">
       <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="149">
+      <c r="D78" s="105">
         <v>5</v>
       </c>
-      <c r="E78" s="197">
+      <c r="E78" s="145">
         <f>IF($D78&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E77))*E$42,0)</f>
-        <v>656236.428571429</v>
-      </c>
-      <c r="F78" s="197">
+        <v>656236.42857142899</v>
+      </c>
+      <c r="F78" s="145">
         <f>IF($D78&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F77))*F$42,0)</f>
         <v>699840</v>
       </c>
-      <c r="G78" s="198">
+      <c r="G78" s="146">
         <f t="shared" si="21"/>
         <v>10975.0189285714</v>
       </c>
-      <c r="H78" s="139"/>
-      <c r="I78" s="139"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="206"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="145"/>
-      <c r="Y78" s="166"/>
-    </row>
-    <row r="79" spans="2:25">
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="L78" s="154"/>
+      <c r="Y78" s="119"/>
+    </row>
+    <row r="79" spans="2:37">
       <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="149">
+      <c r="D79" s="105">
         <v>6</v>
       </c>
-      <c r="E79" s="197">
+      <c r="E79" s="145">
         <f>IF($D79&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E78))*E$42,0)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="197">
+      <c r="F79" s="145">
         <f>IF($D79&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F78))*F$42,0)</f>
         <v>0</v>
       </c>
-      <c r="G79" s="198">
+      <c r="G79" s="146">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="145"/>
-      <c r="Y79" s="166"/>
-    </row>
-    <row r="80" spans="2:25">
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="Y79" s="119"/>
+    </row>
+    <row r="80" spans="2:37">
       <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="149">
+      <c r="D80" s="105">
         <v>7</v>
       </c>
-      <c r="E80" s="197">
+      <c r="E80" s="145">
         <f>IF($D80&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E79))*E$42,0)</f>
         <v>0</v>
       </c>
-      <c r="F80" s="197">
+      <c r="F80" s="145">
         <f>IF($D80&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F79))*F$42,0)</f>
         <v>0</v>
       </c>
-      <c r="G80" s="198">
+      <c r="G80" s="146">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="145"/>
-      <c r="Y80" s="166"/>
-    </row>
-    <row r="81" s="4" customFormat="1" ht="16.25" spans="2:25">
+      <c r="Y80" s="119"/>
+    </row>
+    <row r="81" spans="2:25" s="4" customFormat="1">
       <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="149">
+      <c r="D81" s="105">
         <v>8</v>
       </c>
-      <c r="E81" s="197">
+      <c r="E81" s="145">
         <f>IF($D81&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E80))*E$42,0)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="197">
+      <c r="F81" s="145">
         <f>IF($D81&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F80))*F$42,0)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="198">
+      <c r="G81" s="146">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H81" s="199"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="145"/>
-      <c r="Y81" s="166"/>
-    </row>
-    <row r="82" s="4" customFormat="1" spans="2:25">
+      <c r="H81" s="147"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="119"/>
+    </row>
+    <row r="82" spans="2:25" s="4" customFormat="1">
       <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="149">
+      <c r="D82" s="105">
         <v>9</v>
       </c>
-      <c r="E82" s="197">
+      <c r="E82" s="145">
         <f>IF($D82&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E81))*E$42,0)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="197">
+      <c r="F82" s="145">
         <f>IF($D82&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F81))*F$42,0)</f>
         <v>0</v>
       </c>
-      <c r="G82" s="198">
+      <c r="G82" s="146">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
-      <c r="X82" s="145"/>
-      <c r="Y82" s="166"/>
-    </row>
-    <row r="83" s="4" customFormat="1" ht="16.25" spans="2:25">
+      <c r="X82" s="5"/>
+      <c r="Y82" s="119"/>
+    </row>
+    <row r="83" spans="2:25" s="4" customFormat="1">
       <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="155">
+      <c r="D83" s="111">
         <v>10</v>
       </c>
-      <c r="E83" s="200">
+      <c r="E83" s="148">
         <f>IF($D83&lt;=E$14,((E$9*E$10*100000)-SUM(E$74:E82))*E$42,0)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="200">
+      <c r="F83" s="148">
         <f>IF($D83&lt;=F$14,((F$9*F$10*100000)-SUM(F$74:F82))*F$42,0)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="201">
+      <c r="G83" s="149">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="145"/>
-      <c r="Y83" s="166"/>
-    </row>
-    <row r="84" s="4" customFormat="1" ht="16.25" spans="2:25">
-      <c r="B84" s="202"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="203"/>
-      <c r="E84" s="199"/>
-      <c r="F84" s="199"/>
-      <c r="G84" s="199"/>
-      <c r="H84" s="199"/>
-      <c r="I84" s="199"/>
-      <c r="J84" s="199"/>
-      <c r="K84" s="199"/>
-      <c r="L84" s="199"/>
-      <c r="M84" s="199"/>
-      <c r="N84" s="199"/>
-      <c r="O84" s="199"/>
-      <c r="P84" s="199"/>
-      <c r="Q84" s="199"/>
-      <c r="R84" s="199"/>
-      <c r="S84" s="199"/>
-      <c r="T84" s="199"/>
-      <c r="U84" s="199"/>
-      <c r="V84" s="199"/>
-      <c r="W84" s="199"/>
-      <c r="X84" s="207"/>
-      <c r="Y84" s="209"/>
-    </row>
-    <row r="85" s="4" customFormat="1" spans="4:25">
+      <c r="X83" s="5"/>
+      <c r="Y83" s="119"/>
+    </row>
+    <row r="84" spans="2:25" s="4" customFormat="1">
+      <c r="B84" s="150"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="147"/>
+      <c r="G84" s="147"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="147"/>
+      <c r="J84" s="147"/>
+      <c r="K84" s="147"/>
+      <c r="L84" s="147"/>
+      <c r="M84" s="147"/>
+      <c r="N84" s="147"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="147"/>
+      <c r="Q84" s="147"/>
+      <c r="R84" s="147"/>
+      <c r="S84" s="147"/>
+      <c r="T84" s="147"/>
+      <c r="U84" s="147"/>
+      <c r="V84" s="147"/>
+      <c r="W84" s="147"/>
+      <c r="X84" s="155"/>
+      <c r="Y84" s="157"/>
+    </row>
+    <row r="85" spans="2:25" s="4" customFormat="1">
       <c r="D85" s="2"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="145"/>
-      <c r="Y85" s="210"/>
-    </row>
-    <row r="86" spans="4:25">
+      <c r="X85" s="5"/>
+      <c r="Y85" s="6"/>
+    </row>
+    <row r="86" spans="2:25">
       <c r="D86" s="2"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="145"/>
-      <c r="Y86" s="210"/>
-    </row>
-    <row r="87" spans="4:4">
+    </row>
+    <row r="87" spans="2:25">
       <c r="D87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="Q7:W7"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D72:G72"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Y$6:$Y$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$Y$9:$Y$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" fitToWidth="0" orientation="landscape"/>
-  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="25" max="63" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>